--- a/uploaded/pok/REV_DIPA_4_2020.xlsx
+++ b/uploaded/pok/REV_DIPA_4_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simamov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F39085-2DEA-4E7C-9726-C09009B055BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E8A7A2-4D26-419E-B468-DE4F6FAE2AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="470">
   <si>
     <t>kode</t>
   </si>
@@ -580,9 +580,6 @@
     <t xml:space="preserve">    -     perlengkapan wisuda 75 mhs</t>
   </si>
   <si>
-    <t xml:space="preserve">    - perlengkapan toga dosen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    -     pencetakan laporan prodi D3</t>
   </si>
   <si>
@@ -1435,13 +1432,16 @@
   </si>
   <si>
     <t xml:space="preserve">    -     transport pegawai wfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -     perlengkapan toga dosen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1451,6 +1451,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1473,12 +1479,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G978"/>
+  <dimension ref="A1:G438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -1877,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -1946,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1969,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -2149,7 +2156,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2268,7 +2275,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" s="1">
         <v>40</v>
@@ -2287,8 +2294,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>521219</v>
+      <c r="A26" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>45</v>
@@ -2383,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2406,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2774,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" s="1">
         <v>20</v>
@@ -2797,7 +2804,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" s="1">
         <v>6</v>
@@ -2820,7 +2827,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2843,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="1">
         <v>40</v>
@@ -2866,7 +2873,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="1">
         <v>17</v>
@@ -3188,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C65" s="1">
         <v>191</v>
@@ -3349,7 +3356,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -3372,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" s="1">
         <v>31</v>
@@ -3395,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -3901,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -3924,7 +3931,7 @@
         <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -4016,7 +4023,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C101" s="1">
         <v>450</v>
@@ -4062,7 +4069,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C103" s="1">
         <v>20</v>
@@ -4108,7 +4115,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -4131,7 +4138,7 @@
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -4405,7 +4412,7 @@
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C118" s="1">
         <v>200</v>
@@ -4428,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C119" s="1">
         <v>100</v>
@@ -4497,7 +4504,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C122" s="1">
         <v>620</v>
@@ -4520,7 +4527,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C123" s="1">
         <v>90</v>
@@ -4589,7 +4596,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C126" s="1">
         <v>24</v>
@@ -4612,7 +4619,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C127" s="1">
         <v>40</v>
@@ -4750,7 +4757,7 @@
         <v>9</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C133" s="1">
         <v>2</v>
@@ -4819,7 +4826,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C136" s="1">
         <v>3400</v>
@@ -4842,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
@@ -4934,7 +4941,7 @@
         <v>73</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C141" s="1">
         <v>0</v>
@@ -4957,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C142" s="1">
         <v>3</v>
@@ -4980,7 +4987,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C143" s="1">
         <v>15</v>
@@ -5003,7 +5010,7 @@
         <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C144" s="1">
         <v>100</v>
@@ -5095,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C148" s="1">
         <v>50</v>
@@ -5118,7 +5125,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C149" s="1">
         <v>135</v>
@@ -5164,7 +5171,7 @@
         <v>9</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C151" s="1">
         <v>25</v>
@@ -5187,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C152" s="1">
         <v>100</v>
@@ -5210,7 +5217,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -5233,7 +5240,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C154" s="1">
         <v>1</v>
@@ -5256,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C155" s="1">
         <v>3</v>
@@ -5279,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C156" s="1">
         <v>2</v>
@@ -5325,7 +5332,7 @@
         <v>151</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -5348,7 +5355,7 @@
         <v>9</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C159" s="1">
         <v>5</v>
@@ -5371,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
@@ -5463,7 +5470,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C164" s="1">
         <v>229</v>
@@ -5486,7 +5493,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C165" s="1">
         <v>40</v>
@@ -5647,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C172" s="1">
         <v>1500</v>
@@ -5670,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C173" s="1">
         <v>400</v>
@@ -5739,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C176" s="1">
         <v>100</v>
@@ -5762,7 +5769,7 @@
         <v>9</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" s="1">
         <v>5</v>
@@ -6015,7 +6022,7 @@
         <v>114</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C188" s="1">
         <v>0</v>
@@ -6084,7 +6091,7 @@
         <v>9</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C191" s="1">
         <v>2000</v>
@@ -6130,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C193" s="1">
         <v>114</v>
@@ -6176,7 +6183,7 @@
         <v>9</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C195" s="1">
         <v>10</v>
@@ -6245,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C198" s="1">
         <v>10500</v>
@@ -6268,7 +6275,7 @@
         <v>9</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C199" s="1">
         <v>600</v>
@@ -6429,7 +6436,7 @@
         <v>9</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C206" s="1">
         <v>120</v>
@@ -6452,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="1">
         <v>397</v>
@@ -6590,7 +6597,7 @@
         <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C213" s="1">
         <v>1365</v>
@@ -6613,7 +6620,7 @@
         <v>180</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -6636,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C215" s="1">
         <v>330</v>
@@ -6659,7 +6666,7 @@
         <v>9</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C216" s="1">
         <v>8908</v>
@@ -6751,7 +6758,7 @@
         <v>9</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C220" s="1">
         <v>3</v>
@@ -7003,8 +7010,8 @@
       <c r="A231" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>185</v>
+      <c r="B231" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="C231" s="1">
         <v>1</v>
@@ -7027,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C232" s="1">
         <v>5</v>
@@ -7073,13 +7080,13 @@
         <v>9</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C234" s="1">
         <v>120</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E234" s="1">
         <v>290000</v>
@@ -7096,7 +7103,7 @@
         <v>9</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C235" s="1">
         <v>2925</v>
@@ -7119,13 +7126,13 @@
         <v>9</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C236" s="1">
         <v>75</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E236" s="1">
         <v>750000</v>
@@ -7142,7 +7149,7 @@
         <v>9</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C237" s="1">
         <v>75</v>
@@ -7165,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C238" s="1">
         <v>75</v>
@@ -7188,13 +7195,13 @@
         <v>9</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C239" s="1">
         <v>225</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E239" s="1">
         <v>100000</v>
@@ -7257,7 +7264,7 @@
         <v>9</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C242" s="1">
         <v>1824</v>
@@ -7280,7 +7287,7 @@
         <v>9</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C243" s="1">
         <v>500</v>
@@ -7303,7 +7310,7 @@
         <v>9</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C244" s="1">
         <v>165</v>
@@ -7326,7 +7333,7 @@
         <v>9</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C245" s="1">
         <v>525</v>
@@ -7349,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C246" s="1">
         <v>3000</v>
@@ -7372,7 +7379,7 @@
         <v>9</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C247" s="1">
         <v>502</v>
@@ -7395,7 +7402,7 @@
         <v>9</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C248" s="1">
         <v>2969</v>
@@ -7441,13 +7448,13 @@
         <v>9</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C250" s="1">
         <v>7908</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E250" s="1">
         <v>10000</v>
@@ -7464,13 +7471,13 @@
         <v>9</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C251" s="1">
         <v>342</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E251" s="1">
         <v>290000</v>
@@ -7487,13 +7494,13 @@
         <v>9</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C252" s="1">
         <v>868</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E252" s="1">
         <v>50000</v>
@@ -7510,13 +7517,13 @@
         <v>9</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C253" s="1">
         <v>434</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E253" s="1">
         <v>100000</v>
@@ -7533,13 +7540,13 @@
         <v>9</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C254" s="1">
         <v>434</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E254" s="1">
         <v>100000</v>
@@ -7556,13 +7563,13 @@
         <v>9</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C255" s="1">
         <v>1202</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E255" s="1">
         <v>95000</v>
@@ -7579,13 +7586,13 @@
         <v>9</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C256" s="1">
         <v>434</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E256" s="1">
         <v>750000</v>
@@ -7602,7 +7609,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C257" s="1">
         <v>50</v>
@@ -7625,13 +7632,13 @@
         <v>9</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C258" s="1">
         <v>1392</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E258" s="1">
         <v>250000</v>
@@ -7671,7 +7678,7 @@
         <v>9</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
@@ -7717,7 +7724,7 @@
         <v>9</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C262" s="1">
         <v>92028</v>
@@ -7786,7 +7793,7 @@
         <v>9</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C265" s="1">
         <v>60</v>
@@ -7806,10 +7813,10 @@
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C266" s="1">
         <v>1</v>
@@ -7832,7 +7839,7 @@
         <v>30</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -7878,7 +7885,7 @@
         <v>9</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C269" s="1">
         <v>80</v>
@@ -7970,7 +7977,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C273" s="1">
         <v>30</v>
@@ -7993,7 +8000,7 @@
         <v>14</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -8039,7 +8046,7 @@
         <v>9</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C276" s="1">
         <v>20</v>
@@ -8062,7 +8069,7 @@
         <v>20</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -8108,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C279" s="1">
         <v>15</v>
@@ -8154,7 +8161,7 @@
         <v>9</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C281" s="1">
         <v>200</v>
@@ -8177,7 +8184,7 @@
         <v>22</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -8223,7 +8230,7 @@
         <v>9</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C284" s="1">
         <v>80</v>
@@ -8269,7 +8276,7 @@
         <v>9</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C286" s="1">
         <v>38</v>
@@ -8292,7 +8299,7 @@
         <v>9</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C287" s="1">
         <v>35</v>
@@ -8315,7 +8322,7 @@
         <v>9</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C288" s="1">
         <v>45</v>
@@ -8361,7 +8368,7 @@
         <v>9</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C290" s="1">
         <v>20</v>
@@ -8453,7 +8460,7 @@
         <v>9</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C294" s="1">
         <v>60</v>
@@ -8473,10 +8480,10 @@
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -8522,7 +8529,7 @@
         <v>9</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C297" s="1">
         <v>100</v>
@@ -8545,13 +8552,13 @@
         <v>9</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C298" s="1">
         <v>100</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E298" s="1">
         <v>69000</v>
@@ -8591,7 +8598,7 @@
         <v>9</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C300" s="1">
         <v>200</v>
@@ -8611,10 +8618,10 @@
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
@@ -8634,10 +8641,10 @@
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -8660,7 +8667,7 @@
         <v>98</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -8680,10 +8687,10 @@
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -8706,13 +8713,13 @@
         <v>9</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E305" s="1">
         <v>4916230000</v>
@@ -8729,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
@@ -8752,7 +8759,7 @@
         <v>9</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C307" s="1">
         <v>1</v>
@@ -8772,10 +8779,10 @@
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -8798,13 +8805,13 @@
         <v>9</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C309" s="1">
         <v>1</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E309" s="1">
         <v>59000</v>
@@ -8821,7 +8828,7 @@
         <v>9</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C310" s="1">
         <v>1</v>
@@ -8844,7 +8851,7 @@
         <v>9</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C311" s="1">
         <v>1</v>
@@ -8864,10 +8871,10 @@
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -8890,13 +8897,13 @@
         <v>9</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C313" s="1">
         <v>1</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E313" s="1">
         <v>323781000</v>
@@ -8913,7 +8920,7 @@
         <v>9</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C314" s="1">
         <v>1</v>
@@ -8936,7 +8943,7 @@
         <v>9</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C315" s="1">
         <v>1</v>
@@ -8956,10 +8963,10 @@
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -8982,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C317" s="1">
         <v>1</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E317" s="1">
         <v>99493000</v>
@@ -9005,7 +9012,7 @@
         <v>9</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C318" s="1">
         <v>1</v>
@@ -9028,7 +9035,7 @@
         <v>9</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C319" s="1">
         <v>1</v>
@@ -9048,10 +9055,10 @@
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -9074,13 +9081,13 @@
         <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C321" s="1">
         <v>1</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E321" s="1">
         <v>87270000</v>
@@ -9097,7 +9104,7 @@
         <v>9</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C322" s="1">
         <v>1</v>
@@ -9120,7 +9127,7 @@
         <v>9</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C323" s="1">
         <v>1</v>
@@ -9140,10 +9147,10 @@
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C324" s="1">
         <v>0</v>
@@ -9166,13 +9173,13 @@
         <v>9</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E325" s="1">
         <v>528807000</v>
@@ -9189,7 +9196,7 @@
         <v>9</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C326" s="1">
         <v>1</v>
@@ -9212,7 +9219,7 @@
         <v>9</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C327" s="1">
         <v>1</v>
@@ -9232,10 +9239,10 @@
     </row>
     <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -9258,13 +9265,13 @@
         <v>9</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C329" s="1">
         <v>1</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E329" s="1">
         <v>54159000</v>
@@ -9281,7 +9288,7 @@
         <v>9</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C330" s="1">
         <v>1</v>
@@ -9304,7 +9311,7 @@
         <v>9</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C331" s="1">
         <v>1</v>
@@ -9324,10 +9331,10 @@
     </row>
     <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C332" s="1">
         <v>0</v>
@@ -9350,13 +9357,13 @@
         <v>9</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C333" s="1">
         <v>1</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E333" s="1">
         <v>249201000</v>
@@ -9370,10 +9377,10 @@
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -9396,13 +9403,13 @@
         <v>9</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C335" s="1">
         <v>1</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E335" s="1">
         <v>768431000</v>
@@ -9416,10 +9423,10 @@
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
@@ -9442,13 +9449,13 @@
         <v>9</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C337" s="1">
         <v>1</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E337" s="1">
         <v>85879000</v>
@@ -9465,7 +9472,7 @@
         <v>9</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C338" s="1">
         <v>1</v>
@@ -9488,7 +9495,7 @@
         <v>9</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C339" s="1">
         <v>1</v>
@@ -9508,10 +9515,10 @@
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -9534,13 +9541,13 @@
         <v>9</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C341" s="1">
         <v>1</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E341" s="1">
         <v>1867582000</v>
@@ -9554,10 +9561,10 @@
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
@@ -9580,13 +9587,13 @@
         <v>9</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C343" s="1">
         <v>1</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E343" s="1">
         <v>100000000</v>
@@ -9600,10 +9607,10 @@
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C344" s="1">
         <v>0</v>
@@ -9626,13 +9633,13 @@
         <v>9</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C345" s="1">
         <v>1</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E345" s="1">
         <v>9840486000</v>
@@ -9646,10 +9653,10 @@
     </row>
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C346" s="1">
         <v>0</v>
@@ -9672,7 +9679,7 @@
         <v>98</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -9718,13 +9725,13 @@
         <v>9</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C349" s="1">
         <v>1950</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E349" s="1">
         <v>36000</v>
@@ -9741,7 +9748,7 @@
         <v>103</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C350" s="1">
         <v>0</v>
@@ -9761,10 +9768,10 @@
     </row>
     <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -9787,13 +9794,13 @@
         <v>9</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C352" s="1">
         <v>5</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E352" s="1">
         <v>590000</v>
@@ -9810,13 +9817,13 @@
         <v>9</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C353" s="1">
         <v>10</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E353" s="1">
         <v>590000</v>
@@ -9833,13 +9840,13 @@
         <v>9</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C354" s="1">
         <v>1</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E354" s="1">
         <v>667000</v>
@@ -9853,10 +9860,10 @@
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -9876,10 +9883,10 @@
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
@@ -9902,7 +9909,7 @@
         <v>9</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C357" s="1">
         <v>2500</v>
@@ -9925,7 +9932,7 @@
         <v>9</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C358" s="1">
         <v>5000</v>
@@ -9948,13 +9955,13 @@
         <v>9</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C359" s="1">
         <v>1500</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E359" s="1">
         <v>100000</v>
@@ -9968,10 +9975,10 @@
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C360" s="1">
         <v>0</v>
@@ -9994,7 +10001,7 @@
         <v>9</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C361" s="1">
         <v>1</v>
@@ -10017,7 +10024,7 @@
         <v>112</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C362" s="1">
         <v>0</v>
@@ -10037,10 +10044,10 @@
     </row>
     <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
@@ -10063,7 +10070,7 @@
         <v>9</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C364" s="1">
         <v>13</v>
@@ -10083,10 +10090,10 @@
     </row>
     <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
@@ -10109,13 +10116,13 @@
         <v>9</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C366" s="1">
         <v>1</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E366" s="1">
         <v>28000000</v>
@@ -10132,13 +10139,13 @@
         <v>9</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C367" s="1">
         <v>10</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E367" s="1">
         <v>13890000</v>
@@ -10155,13 +10162,13 @@
         <v>9</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C368" s="1">
         <v>1</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E368" s="1">
         <v>15738000</v>
@@ -10178,13 +10185,13 @@
         <v>9</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C369" s="1">
         <v>1</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E369" s="1">
         <v>3640000</v>
@@ -10198,10 +10205,10 @@
     </row>
     <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C370" s="1">
         <v>0</v>
@@ -10221,10 +10228,10 @@
     </row>
     <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C371" s="1">
         <v>0</v>
@@ -10247,13 +10254,13 @@
         <v>9</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C372" s="1">
         <v>6</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E372" s="1">
         <v>3000000</v>
@@ -10270,13 +10277,13 @@
         <v>9</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C373" s="1">
         <v>6</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E373" s="1">
         <v>3000000</v>
@@ -10290,10 +10297,10 @@
     </row>
     <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C374" s="1">
         <v>0</v>
@@ -10316,7 +10323,7 @@
         <v>9</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C375" s="1">
         <v>20</v>
@@ -10339,7 +10346,7 @@
         <v>9</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C376" s="1">
         <v>5</v>
@@ -10362,7 +10369,7 @@
         <v>9</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C377" s="1">
         <v>1</v>
@@ -10385,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C378" s="1">
         <v>20</v>
@@ -10408,7 +10415,7 @@
         <v>9</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C379" s="1">
         <v>12</v>
@@ -10431,7 +10438,7 @@
         <v>9</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C380" s="1">
         <v>1</v>
@@ -10454,7 +10461,7 @@
         <v>9</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C381" s="1">
         <v>5</v>
@@ -10477,7 +10484,7 @@
         <v>9</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C382" s="1">
         <v>50</v>
@@ -10500,7 +10507,7 @@
         <v>9</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C383" s="1">
         <v>1</v>
@@ -10523,7 +10530,7 @@
         <v>9</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C384" s="1">
         <v>1</v>
@@ -10546,7 +10553,7 @@
         <v>9</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C385" s="1">
         <v>200</v>
@@ -10569,7 +10576,7 @@
         <v>9</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C386" s="1">
         <v>30</v>
@@ -10592,13 +10599,13 @@
         <v>9</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C387" s="1">
         <v>5</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E387" s="1">
         <v>450000</v>
@@ -10615,13 +10622,13 @@
         <v>9</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C388" s="1">
         <v>20</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E388" s="1">
         <v>547500</v>
@@ -10638,13 +10645,13 @@
         <v>9</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C389" s="1">
         <v>110</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E389" s="1">
         <v>60000</v>
@@ -10661,13 +10668,13 @@
         <v>9</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C390" s="1">
         <v>2000</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E390" s="1">
         <v>12000</v>
@@ -10684,7 +10691,7 @@
         <v>9</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C391" s="1">
         <v>2</v>
@@ -10704,10 +10711,10 @@
     </row>
     <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C392" s="1">
         <v>0</v>
@@ -10727,10 +10734,10 @@
     </row>
     <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C393" s="1">
         <v>0</v>
@@ -10753,7 +10760,7 @@
         <v>9</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C394" s="1">
         <v>65</v>
@@ -10776,7 +10783,7 @@
         <v>9</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C395" s="1">
         <v>13</v>
@@ -10799,7 +10806,7 @@
         <v>9</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C396" s="1">
         <v>36</v>
@@ -10822,7 +10829,7 @@
         <v>9</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C397" s="1">
         <v>65</v>
@@ -10845,7 +10852,7 @@
         <v>9</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C398" s="1">
         <v>143</v>
@@ -10868,7 +10875,7 @@
         <v>9</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C399" s="1">
         <v>12</v>
@@ -10891,7 +10898,7 @@
         <v>9</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C400" s="1">
         <v>12</v>
@@ -10914,7 +10921,7 @@
         <v>9</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C401" s="1">
         <v>12</v>
@@ -10937,13 +10944,13 @@
         <v>9</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C402" s="1">
         <v>1</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E402" s="1">
         <v>199000000</v>
@@ -10960,7 +10967,7 @@
         <v>9</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C403" s="1">
         <v>12</v>
@@ -10983,7 +10990,7 @@
         <v>9</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C404" s="1">
         <v>1</v>
@@ -11006,13 +11013,13 @@
         <v>9</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C405" s="1">
         <v>105</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E405" s="1">
         <v>700000</v>
@@ -11029,7 +11036,7 @@
         <v>9</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C406" s="1">
         <v>12</v>
@@ -11049,10 +11056,10 @@
     </row>
     <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C407" s="1">
         <v>0</v>
@@ -11075,7 +11082,7 @@
         <v>9</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C408" s="1">
         <v>1</v>
@@ -11098,7 +11105,7 @@
         <v>9</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C409" s="1">
         <v>1</v>
@@ -11121,7 +11128,7 @@
         <v>114</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C410" s="1">
         <v>0</v>
@@ -11144,13 +11151,13 @@
         <v>9</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C411" s="1">
         <v>2150</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E411" s="1">
         <v>40000</v>
@@ -11164,10 +11171,10 @@
     </row>
     <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C412" s="1">
         <v>0</v>
@@ -11190,7 +11197,7 @@
         <v>9</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C413" s="1">
         <v>12</v>
@@ -11213,13 +11220,13 @@
         <v>9</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C414" s="1">
         <v>1</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E414" s="1">
         <v>65000000</v>
@@ -11233,10 +11240,10 @@
     </row>
     <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C415" s="1">
         <v>0</v>
@@ -11259,7 +11266,7 @@
         <v>9</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C416" s="1">
         <v>12</v>
@@ -11279,10 +11286,10 @@
     </row>
     <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C417" s="1">
         <v>0</v>
@@ -11305,7 +11312,7 @@
         <v>9</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C418" s="1">
         <v>12</v>
@@ -11328,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C419" s="1">
         <v>0</v>
@@ -11351,13 +11358,13 @@
         <v>9</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C420" s="1">
         <v>560</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E420" s="1">
         <v>150000</v>
@@ -11374,7 +11381,7 @@
         <v>9</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C421" s="1">
         <v>4</v>
@@ -11394,10 +11401,10 @@
     </row>
     <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C422" s="1">
         <v>0</v>
@@ -11420,13 +11427,13 @@
         <v>9</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C423" s="1">
         <v>134</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E423" s="1">
         <v>150000</v>
@@ -11440,10 +11447,10 @@
     </row>
     <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C424" s="1">
         <v>0</v>
@@ -11463,10 +11470,10 @@
     </row>
     <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C425" s="1">
         <v>0</v>
@@ -11489,7 +11496,7 @@
         <v>9</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C426" s="1">
         <v>12</v>
@@ -11512,7 +11519,7 @@
         <v>9</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C427" s="1">
         <v>12</v>
@@ -11535,7 +11542,7 @@
         <v>9</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C428" s="1">
         <v>12</v>
@@ -11558,7 +11565,7 @@
         <v>9</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C429" s="1">
         <v>12</v>
@@ -11581,7 +11588,7 @@
         <v>9</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C430" s="1">
         <v>12</v>
@@ -11604,7 +11611,7 @@
         <v>9</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C431" s="1">
         <v>12</v>
@@ -11627,7 +11634,7 @@
         <v>9</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C432" s="1">
         <v>24</v>
@@ -11650,7 +11657,7 @@
         <v>9</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C433" s="1">
         <v>12</v>
@@ -11673,7 +11680,7 @@
         <v>9</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C434" s="1">
         <v>12</v>
@@ -11696,7 +11703,7 @@
         <v>9</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C435" s="1">
         <v>12</v>
@@ -11719,7 +11726,7 @@
         <v>9</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C436" s="1">
         <v>12</v>
@@ -11742,7 +11749,7 @@
         <v>9</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C437" s="1">
         <v>12</v>
@@ -11765,7 +11772,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C438" s="1">
         <v>12</v>
@@ -11783,551 +11790,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A3 A5:A6 A9:A10 A13:A14 A16:A18 A20" numberStoredAsText="1"/>
+    <ignoredError sqref="A3 A5:A6 A9:A10 A13:A14 A16:A18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>